--- a/basics.xlsx
+++ b/basics.xlsx
@@ -408,7 +408,7 @@
   <dimension ref="A2:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -465,7 +465,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="C6" t="s">
         <v>1</v>
@@ -487,7 +487,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="C8" t="s">
         <v>1</v>
@@ -509,7 +509,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="C10" t="s">
         <v>1</v>

--- a/basics.xlsx
+++ b/basics.xlsx
@@ -408,7 +408,7 @@
   <dimension ref="A2:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -465,7 +465,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="C6" t="s">
         <v>1</v>
